--- a/biology/Zoologie/Acanthurus_fowleri/Acanthurus_fowleri.xlsx
+++ b/biology/Zoologie/Acanthurus_fowleri/Acanthurus_fowleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus fowleri, communément appelé le Chirurgien de Fowler, est une espèce de poissons tropicaux de la famille des Acanthuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthurus fowleri se rencontre en Asie du Sud, en Asie de l'Est, en Afrique de l'Est et en Australie du Sud-Ouest, et ce généralement depuis la surface jusqu'à une 20 m de profondeur[1], mais pouvant aller jusqu'à 50 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthurus fowleri se rencontre en Asie du Sud, en Asie de l'Est, en Afrique de l'Est et en Australie du Sud-Ouest, et ce généralement depuis la surface jusqu'à une 20 m de profondeur, mais pouvant aller jusqu'à 50 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthurus fowleri peut mesurer jusqu'à 45 cm[1]. Cette espèce est plutôt solitaire et affectionne les eaux claires de récif[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthurus fowleri peut mesurer jusqu'à 45 cm. Cette espèce est plutôt solitaire et affectionne les eaux claires de récif.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, fowleri, lui a été donné en l'honneur de Henry Weed Fowler (1878-1965), zoologiste américain de l'Académie des sciences naturelles de Philadelphie, qui avait, en 1929, mentionné cette espèce sous le taxon Hepatus pyroferus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, fowleri, lui a été donné en l'honneur de Henry Weed Fowler (1878-1965), zoologiste américain de l'Académie des sciences naturelles de Philadelphie, qui avait, en 1929, mentionné cette espèce sous le taxon Hepatus pyroferus.
 </t>
         </is>
       </c>
